--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,162 @@
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18:15-18:35</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11:15-11:30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11:30-12:05, 16:30-17:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10:30-11:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11:10-11:30, 22:35-22:55</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11:30-12:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11:30-12:05</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11:15-11:50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11:15-11:30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11:30-11:45</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11:30-12:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,6 +671,32 @@
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>11:00-12:00, 19:00-19:30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>16:00-16:50, 19:30-19:55</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,32 @@
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11:00-11:25, 15:50-16:55</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16:00-16:50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,6 +723,32 @@
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11:15-11:35, 16:20-16:45</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10:40-11:40</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,6 +749,32 @@
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16:20-17:10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16:00-16:50</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,6 +775,45 @@
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16:00-17:15</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16:00-17:05</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16:35-17:05</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,6 +814,32 @@
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16:05-17:05</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10:30-11:35</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,6 +840,58 @@
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16:30-17:15</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>16:05-17:05</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>10:35-11:25, 16:45-17:15</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>15:45-17:05</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,6 +892,97 @@
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10:35-11:25</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>16:40-17:05</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>11:10-11:40</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>10:45-11:35</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>16:00-16:55</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>9:00-9:40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>15:50-17:05</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +983,32 @@
       </c>
       <c r="C42" t="inlineStr"/>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>8:55-9:45</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>10:30-11:35, 16:30-17:20</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +1007,180 @@
           <t>10:30-11:35, 16:30-17:20</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新东方阅读基础100篇</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>16:30-17:15</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>11:05-11:45</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10:40-11:35</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16:05-17:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>16:10-17:10</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>8:45-9:40</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>11:20-12:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>16:10-17:05</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9:00-9:40</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10:50-11:20</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10:45-11:10</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>10:00-10:25</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16:05-16:50</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,6 +1182,123 @@
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>16:00-17:10</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>15:50-17:05</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>8:30-9:35</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>15:45-17:10</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>16:05-17:00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>10:20-10:50</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>16:00-16:55</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>16:10-16:40</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>15:50-17:20</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,6 +1299,179 @@
       </c>
       <c r="C66" t="inlineStr"/>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>10:25-11:15</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>16:00-17:05</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华研基础-阅读</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>8:20-10:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>16:05-17:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>8:40-10:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>9:00-9:45</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>16:00-17:20</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>10:25-11:45</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>10:35-11:10</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>8:25-9:55</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>8:30-9:20, 9:20-9:40</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>8:20-9:40</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>8:40-9:40</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1472,6 +1472,58 @@
       </c>
       <c r="C79" t="inlineStr"/>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>8:30-9:25, 9:25-10:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8:50-9:30, 9:30-10:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>7:45-8:50</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>8:35-9:15, 9:15-10:05</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1524,6 +1524,266 @@
       </c>
       <c r="C83" t="inlineStr"/>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9:25-9:50</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>9:35-10:20</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>7:45-8:05</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>8:20-8:45</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>8:25-8:45</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>11:05-11:25</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>11:05-11:25</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>8:30-8:55</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>7:55-8:25</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>8:35-8:55</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>8:30-9:10</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>10:30-11:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>10:50-11:15</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>9:20-10:05</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>6:35-7:10</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>9:00-9:45</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>8:40-9:05</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>11:10-11:35</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>10:40-11:10</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>11:05-11:25</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,6 +1784,240 @@
       </c>
       <c r="C103" t="inlineStr"/>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>8:00-8:30</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>7:30-8:05</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>8:55-9:30</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>8:15-8:45</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>8:25-8:50</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>18:20-18:45</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>8:50-9:20</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>18:30-18:40</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>18:25-18:45</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>18:20-18:40</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>18:25-19:05</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>9:10-9:35</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>16:45-17:05</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>18:30-18:50</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>18:20-18:35</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>18:20-18:35</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>18:30-18:45</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>18:25-18:40</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2018,6 +2018,71 @@
       </c>
       <c r="C121" t="inlineStr"/>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>16:55-17:20</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>18:25-18:40</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>18:40-18:55</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>18:20-18:40</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>18:30-18:40</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2083,6 +2083,253 @@
       </c>
       <c r="C126" t="inlineStr"/>
     </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>20:25-20:40</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>11:50-12:10</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>8:00-8:20</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>8:15-8:45</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>15:20-15:50</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>10:05-10:30</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>8:30-9:00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>7:45-8:50</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>8:20-8:45</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>21:15-21:40</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>11:20-11:40</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>10:50-11:15</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>8:30-8:50</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>8:50-9:20</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>8:25-9:00</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>7:40-8:10</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>8:25-8:55</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>7:45-8:20</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>8:20-8:45</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/学习时长-英语2025.xlsx
+++ b/data/xlsx/学习时长-英语2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2330,6 +2330,201 @@
       </c>
       <c r="C145" t="inlineStr"/>
     </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>9:15-9:45</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>9:00-9:30</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>8:05-8:20</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>7:50-8:15</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>8:40-9:20</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>8:45-9:05</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>8:40-9:05</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>8:30-9:00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>14:05-14:25</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>8:15-8:30</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>8:30-9:05</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>8:45-9:00</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>8:30-8:45</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>8:50-9:10</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>9:05-9:20</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
